--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/123/word_level_predictions_123.xlsx
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G58" s="2" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -3501,11 +3501,11 @@
         </is>
       </c>
       <c r="I59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K59" s="2" t="b">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6482,262 +6482,262 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D117" t="n">
+      <c r="D117" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="I117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="I118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>21</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="I120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>recommended</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>3</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>22</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>3</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>23</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>3</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>recommended</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>24</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/123/word_level_predictions_123.xlsx
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G58" s="2" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3501,11 +3501,11 @@
         </is>
       </c>
       <c r="I59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K59" s="2" t="b">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6482,262 +6482,262 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Unlocking</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>20</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>3</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>21</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>3</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>restrictions</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>22</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>3</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>23</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>3</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>recommended</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>24</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
